--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29406"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD6BA9A-15F5-4D77-945C-85848E25EADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
-    <sheet name="tc001" sheetId="1" r:id="rId1"/>
+    <sheet name="tc002" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,26 +27,386 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>STG- PulseCodeOnAzureCloud</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color rgb="FF667084"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -57,24 +414,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -123,7 +767,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -156,26 +800,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -208,23 +835,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,25 +996,51 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="22.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29406"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD6BA9A-15F5-4D77-945C-85848E25EADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
+    <sheet name="tc004" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,26 +27,398 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>parentModule</t>
+  </si>
+  <si>
+    <t>releaseName</t>
+  </si>
+  <si>
+    <t>subTestCycle</t>
+  </si>
+  <si>
+    <t>subTestsuit</t>
+  </si>
+  <si>
+    <t>STG- PulseCodeOnAzureCloud</t>
+  </si>
+  <si>
+    <t>Release J10</t>
+  </si>
+  <si>
+    <t>TestCycle 10</t>
+  </si>
+  <si>
+    <t>TestSuite 10</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -57,24 +426,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -123,7 +780,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -156,26 +813,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -208,23 +848,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,25 +1009,72 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25547C77-D19D-4382-A9AA-19003E815C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8ACDCA-DC92-4C94-AC75-F943F80DCF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8ACDCA-DC92-4C94-AC75-F943F80DCF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB96EDE-F1D2-444C-AB71-CC01E3A83ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
     <sheet name="tc006" sheetId="2" r:id="rId2"/>
+    <sheet name="tc011" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Project Name</t>
   </si>
@@ -54,13 +55,19 @@
   </si>
   <si>
     <t>TR-49</t>
+  </si>
+  <si>
+    <t>TCClick</t>
+  </si>
+  <si>
+    <t>TR-129</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +80,13 @@
       <color rgb="FF667084"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,9 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -472,4 +487,59 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F278B0-20B3-4B03-A317-51B7EF47B631}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="48.6328125" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB96EDE-F1D2-444C-AB71-CC01E3A83ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AD6D37-6B87-4D8E-ABCC-AEAAF177FD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
     <sheet name="tc006" sheetId="2" r:id="rId2"/>
     <sheet name="tc011" sheetId="3" r:id="rId3"/>
+    <sheet name="tc013" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Project Name</t>
   </si>
@@ -61,6 +62,21 @@
   </si>
   <si>
     <t>TR-129</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>actual result</t>
+  </si>
+  <si>
+    <t>user able to navigate to author tab</t>
+  </si>
+  <si>
+    <t>stepno</t>
   </si>
 </sst>
 </file>
@@ -109,10 +125,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F278B0-20B3-4B03-A317-51B7EF47B631}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -542,4 +561,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D796E87-E634-4DDB-963C-236622F323C9}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="8" max="8" width="28.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AD6D37-6B87-4D8E-ABCC-AEAAF177FD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65097903-4D8F-4A27-9C8E-810F9EBC8118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -1,29 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65097903-4D8F-4A27-9C8E-810F9EBC8118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
     <sheet name="tc006" sheetId="2" r:id="rId2"/>
     <sheet name="tc011" sheetId="3" r:id="rId3"/>
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
+    <sheet name="tc007" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Project Name</t>
   </si>
@@ -43,18 +51,18 @@
     <t>SuiteName</t>
   </si>
   <si>
+    <t>SearchTR</t>
+  </si>
+  <si>
+    <t>New Release 12-09-2025</t>
+  </si>
+  <si>
     <t>New TestCycle 13-09-2025</t>
   </si>
   <si>
-    <t>New Release 12-09-2025</t>
-  </si>
-  <si>
     <t>New TestSuite 13-09-2025</t>
   </si>
   <si>
-    <t>SearchTR</t>
-  </si>
-  <si>
     <t>TR-49</t>
   </si>
   <si>
@@ -67,23 +75,44 @@
     <t>status</t>
   </si>
   <si>
+    <t>stepno</t>
+  </si>
+  <si>
+    <t>actual result</t>
+  </si>
+  <si>
     <t>Incomplete</t>
   </si>
   <si>
-    <t>actual result</t>
-  </si>
-  <si>
     <t>user able to navigate to author tab</t>
   </si>
   <si>
-    <t>stepno</t>
+    <t>test run</t>
+  </si>
+  <si>
+    <t>Mayukh_Release</t>
+  </si>
+  <si>
+    <t>Mayukh_TestCycle_Execute</t>
+  </si>
+  <si>
+    <t>Mayukh_Cycle_Execute</t>
+  </si>
+  <si>
+    <t>TR-143</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,19 +130,349 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -121,29 +480,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -421,21 +1067,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="22.90625" customWidth="1"/>
+    <col min="1" max="1" width="22.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -444,29 +1090,31 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.08984375" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="27.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="25.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="24.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="24.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -483,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -494,10 +1142,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -505,26 +1153,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F278B0-20B3-4B03-A317-51B7EF47B631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A1" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" customWidth="1"/>
-    <col min="2" max="2" width="33.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.08984375" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="48.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="33.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="27.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -541,7 +1191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -549,10 +1199,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -560,23 +1210,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D796E87-E634-4DDB-963C-236622F323C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="8" max="8" width="28.81640625" customWidth="1"/>
+    <col min="8" max="8" width="28.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -596,13 +1248,13 @@
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -610,25 +1262,84 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="17.9166666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.9166666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65097903-4D8F-4A27-9C8E-810F9EBC8118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19F9589-5C3B-4DD1-BAA7-50895675C566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
     <sheet name="tc006" sheetId="2" r:id="rId2"/>
     <sheet name="tc011" sheetId="3" r:id="rId3"/>
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
+    <sheet name="tc015" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>Project Name</t>
   </si>
@@ -567,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D796E87-E634-4DDB-963C-236622F323C9}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
@@ -631,4 +632,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1908F881-AC05-44CE-9916-FF63D2A20635}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" customWidth="1"/>
+    <col min="9" max="9" width="21.36328125" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29406"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD6BA9A-15F5-4D77-945C-85848E25EADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18600" windowHeight="6080"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,26 +26,386 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>releaseName</t>
+  </si>
+  <si>
+    <t>STG- PulseCodeOnAzureCloud</t>
+  </si>
+  <si>
+    <t>New Release 3 September</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -57,24 +413,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -123,7 +765,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -156,26 +798,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -208,23 +833,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,25 +994,42 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="24.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19F9589-5C3B-4DD1-BAA7-50895675C566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145F0D5F-7238-41F6-A117-69A1E476C21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="tc011" sheetId="3" r:id="rId3"/>
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
     <sheet name="tc015" sheetId="6" r:id="rId5"/>
+    <sheet name="tc016" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>Project Name</t>
   </si>
@@ -78,6 +79,12 @@
   </si>
   <si>
     <t>stepno</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -638,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1908F881-AC05-44CE-9916-FF63D2A20635}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -711,4 +718,73 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44374B5B-06E2-41FE-A304-892597FE14D4}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19F9589-5C3B-4DD1-BAA7-50895675C566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -18,13 +12,27 @@
     <sheet name="tc011" sheetId="3" r:id="rId3"/>
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
     <sheet name="tc015" sheetId="6" r:id="rId5"/>
+    <sheet name="tc007" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>Project Name</t>
   </si>
@@ -44,18 +52,18 @@
     <t>SuiteName</t>
   </si>
   <si>
+    <t>SearchTR</t>
+  </si>
+  <si>
+    <t>New Release 12-09-2025</t>
+  </si>
+  <si>
     <t>New TestCycle 13-09-2025</t>
   </si>
   <si>
-    <t>New Release 12-09-2025</t>
-  </si>
-  <si>
     <t>New TestSuite 13-09-2025</t>
   </si>
   <si>
-    <t>SearchTR</t>
-  </si>
-  <si>
     <t>TR-49</t>
   </si>
   <si>
@@ -68,26 +76,67 @@
     <t>status</t>
   </si>
   <si>
+    <t>stepno</t>
+  </si>
+  <si>
+    <t>actual result</t>
+  </si>
+  <si>
     <t>Incomplete</t>
   </si>
   <si>
-    <t>actual result</t>
-  </si>
-  <si>
     <t>user able to navigate to author tab</t>
   </si>
   <si>
-    <t>stepno</t>
+    <t>test run</t>
+  </si>
+  <si>
+    <t>Mayukh_Release</t>
+  </si>
+  <si>
+    <t>Mayukh_TestCycle_Execute</t>
+  </si>
+  <si>
+    <t>Mayukh_Cycle_Execute</t>
+  </si>
+  <si>
+    <t>TR-143</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.2"/>
+      <color rgb="FF667084"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -99,22 +148,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -122,29 +494,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,21 +1082,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="22.90625" customWidth="1"/>
+    <col min="1" max="1" width="22.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -445,29 +1105,31 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.08984375" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="27.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="25.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="24.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="24.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -484,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -495,10 +1157,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -506,209 +1168,267 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F278B0-20B3-4B03-A317-51B7EF47B631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A1" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" customWidth="1"/>
-    <col min="2" max="2" width="33.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.08984375" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="48.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="33.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="27.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D796E87-E634-4DDB-963C-236622F323C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="8" max="8" width="28.81640625" customWidth="1"/>
+    <col min="8" max="8" width="28.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1908F881-AC05-44CE-9916-FF63D2A20635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
-    <col min="8" max="8" width="28.453125" customWidth="1"/>
-    <col min="9" max="9" width="21.36328125" customWidth="1"/>
-    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.2666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.45" customWidth="1"/>
+    <col min="3" max="3" width="28.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="18.5416666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.3666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.725" customWidth="1"/>
+    <col min="8" max="8" width="28.45" customWidth="1"/>
+    <col min="9" max="9" width="21.3666666666667" customWidth="1"/>
+    <col min="10" max="10" width="19.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
     <sheet name="tc015" sheetId="6" r:id="rId5"/>
     <sheet name="tc007" sheetId="7" r:id="rId6"/>
+    <sheet name="tc016" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>Project Name</t>
   </si>
@@ -101,6 +102,12 @@
   </si>
   <si>
     <t>TR-143</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -124,6 +131,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -133,13 +146,6 @@
       <color rgb="FF667084"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8.25"/>
@@ -740,12 +746,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1105,7 +1114,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1178,7 +1187,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1190,36 +1199,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1244,54 +1253,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1306,8 +1315,8 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1324,55 +1333,55 @@
     <col min="10" max="10" width="19.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="14.5" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="14.5" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1387,13 +1396,64 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="14.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1407,24 +1467,36 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="14.5" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -1,64 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19F9589-5C3B-4DD1-BAA7-50895675C566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18600" windowHeight="6080" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="tc002" sheetId="1" r:id="rId1"/>
-    <sheet name="tc006" sheetId="2" r:id="rId2"/>
+    <sheet name="tc006" sheetId="2" r:id="rId1"/>
+    <sheet name="tc002" sheetId="1" r:id="rId2"/>
     <sheet name="tc011" sheetId="3" r:id="rId3"/>
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
     <sheet name="tc015" sheetId="6" r:id="rId5"/>
+    <sheet name="tc004" sheetId="7" r:id="rId6"/>
+    <sheet name="tc001" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+  <si>
+    <t>Projectname</t>
+  </si>
+  <si>
+    <t>ReleaseName</t>
+  </si>
+  <si>
+    <t>CycleName</t>
+  </si>
+  <si>
+    <t>SuiteName</t>
+  </si>
+  <si>
+    <t>SearchTR</t>
+  </si>
+  <si>
+    <t>STG- PulseCodeOnAzureCloud</t>
+  </si>
+  <si>
+    <t>New Release 12-09-2025</t>
+  </si>
+  <si>
+    <t>New TestCycle 13-09-2025</t>
+  </si>
+  <si>
+    <t>New TestSuite 13-09-2025</t>
+  </si>
+  <si>
+    <t>TR-49</t>
+  </si>
   <si>
     <t>Project Name</t>
   </si>
   <si>
-    <t>STG- PulseCodeOnAzureCloud</t>
-  </si>
-  <si>
-    <t>Projectname</t>
-  </si>
-  <si>
-    <t>ReleaseName</t>
-  </si>
-  <si>
-    <t>CycleName</t>
-  </si>
-  <si>
-    <t>SuiteName</t>
-  </si>
-  <si>
-    <t>New TestCycle 13-09-2025</t>
-  </si>
-  <si>
-    <t>New Release 12-09-2025</t>
-  </si>
-  <si>
-    <t>New TestSuite 13-09-2025</t>
-  </si>
-  <si>
-    <t>SearchTR</t>
-  </si>
-  <si>
-    <t>TR-49</t>
-  </si>
-  <si>
     <t>TCClick</t>
   </si>
   <si>
@@ -68,26 +77,70 @@
     <t>status</t>
   </si>
   <si>
+    <t>stepno</t>
+  </si>
+  <si>
+    <t>actual result</t>
+  </si>
+  <si>
     <t>Incomplete</t>
   </si>
   <si>
-    <t>actual result</t>
-  </si>
-  <si>
     <t>user able to navigate to author tab</t>
   </si>
   <si>
-    <t>stepno</t>
+    <t>parentModule</t>
+  </si>
+  <si>
+    <t>releaseName</t>
+  </si>
+  <si>
+    <t>subTestCycle</t>
+  </si>
+  <si>
+    <t>subTestsuit</t>
+  </si>
+  <si>
+    <t>Release J10</t>
+  </si>
+  <si>
+    <t>TestCycle 10</t>
+  </si>
+  <si>
+    <t>TestSuite 10</t>
+  </si>
+  <si>
+    <t>New Release 3 September</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -99,22 +152,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -122,29 +498,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,135 +1085,139 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="27.1833333333333" customWidth="1"/>
+    <col min="2" max="2" width="25.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="24.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="24.8166666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="22.90625" customWidth="1"/>
+    <col min="1" max="1" width="22.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.08984375" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F278B0-20B3-4B03-A317-51B7EF47B631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A1" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" customWidth="1"/>
-    <col min="2" max="2" width="33.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.08984375" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="48.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="33.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="27.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -561,34 +1228,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D796E87-E634-4DDB-963C-236622F323C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="8" max="8" width="28.81640625" customWidth="1"/>
+    <col min="8" max="8" width="28.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>11</v>
@@ -597,21 +1266,21 @@
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -620,54 +1289,56 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1908F881-AC05-44CE-9916-FF63D2A20635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
-    <col min="8" max="8" width="28.453125" customWidth="1"/>
-    <col min="9" max="9" width="21.36328125" customWidth="1"/>
-    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.2666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.45" customWidth="1"/>
+    <col min="3" max="3" width="28.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="18.5416666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.3666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.725" customWidth="1"/>
+    <col min="8" max="8" width="28.45" customWidth="1"/>
+    <col min="9" max="9" width="21.3666666666667" customWidth="1"/>
+    <col min="10" max="10" width="19.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>11</v>
@@ -676,21 +1347,21 @@
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -699,16 +1370,98 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="26.5833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
     <sheet name="tc006" sheetId="2" r:id="rId2"/>
     <sheet name="tc011" sheetId="3" r:id="rId3"/>
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
-    <sheet name="tc015" sheetId="6" r:id="rId5"/>
-    <sheet name="tc007" sheetId="7" r:id="rId6"/>
-    <sheet name="tc016" sheetId="8" r:id="rId7"/>
+    <sheet name="tc009" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Project Name</t>
   </si>
@@ -89,25 +87,19 @@
     <t>user able to navigate to author tab</t>
   </si>
   <si>
-    <t>test run</t>
-  </si>
-  <si>
-    <t>Mayukh_Release</t>
-  </si>
-  <si>
-    <t>Mayukh_TestCycle_Execute</t>
-  </si>
-  <si>
-    <t>Mayukh_Cycle_Execute</t>
-  </si>
-  <si>
-    <t>TR-143</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>Passed</t>
+    <t>projName</t>
+  </si>
+  <si>
+    <t>releaseName</t>
+  </si>
+  <si>
+    <t>testRun</t>
+  </si>
+  <si>
+    <t>Release J10</t>
+  </si>
+  <si>
+    <t>TR-53</t>
   </si>
 </sst>
 </file>
@@ -115,12 +107,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +123,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -140,12 +133,6 @@
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8.2"/>
-      <color rgb="FF667084"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="8.25"/>
@@ -604,160 +591,156 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,7 +1097,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1187,7 +1170,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A1" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1244,7 +1227,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="I1" sqref="I$1:K$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1297,7 +1280,7 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1313,190 +1296,38 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.2666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.45" customWidth="1"/>
-    <col min="3" max="3" width="28.0916666666667" customWidth="1"/>
-    <col min="4" max="4" width="18.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="18.5416666666667" customWidth="1"/>
-    <col min="6" max="6" width="16.3666666666667" customWidth="1"/>
-    <col min="7" max="7" width="13.725" customWidth="1"/>
-    <col min="8" max="8" width="28.45" customWidth="1"/>
-    <col min="9" max="9" width="21.3666666666667" customWidth="1"/>
-    <col min="10" max="10" width="19.8166666666667" customWidth="1"/>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" ht="14.5" spans="1:8">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" ht="14.5" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="tc011" sheetId="3" r:id="rId3"/>
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
     <sheet name="tc009" sheetId="6" r:id="rId5"/>
+    <sheet name="tc021" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>Project Name</t>
   </si>
@@ -100,6 +101,12 @@
   </si>
   <si>
     <t>TR-53</t>
+  </si>
+  <si>
+    <t>defectID</t>
+  </si>
+  <si>
+    <t>DF123</t>
   </si>
 </sst>
 </file>
@@ -1298,8 +1305,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1334,4 +1341,54 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.5833333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="4"/>
+    <workbookView windowWidth="18600" windowHeight="6800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="tc011" sheetId="3" r:id="rId3"/>
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
     <sheet name="tc009" sheetId="6" r:id="rId5"/>
+    <sheet name="tc014" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Project Name</t>
   </si>
@@ -100,6 +101,9 @@
   </si>
   <si>
     <t>TR-53</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -1298,8 +1302,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1334,4 +1338,54 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
     <sheet name="tc009" sheetId="6" r:id="rId5"/>
     <sheet name="tc021" sheetId="7" r:id="rId6"/>
+    <sheet name="tc036" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Project Name</t>
   </si>
@@ -107,6 +108,21 @@
   </si>
   <si>
     <t>DF123</t>
+  </si>
+  <si>
+    <t>parentModule</t>
+  </si>
+  <si>
+    <t>subTestCycle</t>
+  </si>
+  <si>
+    <t>subTestsuit</t>
+  </si>
+  <si>
+    <t>TestCycle 10</t>
+  </si>
+  <si>
+    <t>TestSuite 10</t>
   </si>
 </sst>
 </file>
@@ -1348,8 +1364,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1391,4 +1407,55 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="37.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.5833333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.9166666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.1666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="tc009" sheetId="6" r:id="rId5"/>
     <sheet name="tc021" sheetId="7" r:id="rId6"/>
     <sheet name="tc036" sheetId="8" r:id="rId7"/>
+    <sheet name="tc037" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Project Name</t>
   </si>
@@ -1414,7 +1415,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -1458,4 +1459,55 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="34.9166666666667" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="23.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="28.9166666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C170BB-CB99-41FF-9BCF-09C48E9B1232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD907862-55C3-4183-9280-FC643BB4DE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="tc011" sheetId="3" r:id="rId3"/>
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
     <sheet name="tc034" sheetId="7" r:id="rId5"/>
-    <sheet name="tc009" sheetId="6" r:id="rId6"/>
+    <sheet name="tc038" sheetId="8" r:id="rId6"/>
+    <sheet name="tc009" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>Project Name</t>
   </si>
@@ -97,6 +98,9 @@
   </si>
   <si>
     <t>step</t>
+  </si>
+  <si>
+    <t>Incompleted</t>
   </si>
 </sst>
 </file>
@@ -668,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1706F1A3-C876-4CA1-8FA2-06E687BAAE5B}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -741,6 +745,59 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8040127A-7530-4E41-AF8A-D53FEF57EB50}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD907862-55C3-4183-9280-FC643BB4DE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58233A6A-0B64-4D3C-8979-E8161E454614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>Project Name</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Incompleted</t>
+  </si>
+  <si>
+    <t>exstatus</t>
   </si>
 </sst>
 </file>
@@ -746,10 +749,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8040127A-7530-4E41-AF8A-D53FEF57EB50}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -758,7 +761,7 @@
     <col min="5" max="5" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -774,8 +777,11 @@
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -790,6 +796,9 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58233A6A-0B64-4D3C-8979-E8161E454614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DE88C0-6F45-453C-96B3-351FB6FDB876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
     <sheet name="tc034" sheetId="7" r:id="rId5"/>
     <sheet name="tc038" sheetId="8" r:id="rId6"/>
-    <sheet name="tc009" sheetId="6" r:id="rId7"/>
+    <sheet name="tc047" sheetId="9" r:id="rId7"/>
+    <sheet name="tc009" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>Project Name</t>
   </si>
@@ -104,6 +105,30 @@
   </si>
   <si>
     <t>exstatus</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Epic Mohit</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Mohit Feature</t>
+  </si>
+  <si>
+    <t>SelectRq</t>
+  </si>
+  <si>
+    <t>RQ-489</t>
+  </si>
+  <si>
+    <t>Tc_id</t>
+  </si>
+  <si>
+    <t>TC-427</t>
   </si>
 </sst>
 </file>
@@ -751,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8040127A-7530-4E41-AF8A-D53FEF57EB50}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -807,6 +832,78 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8921BA6-C320-4E72-BAB5-593AAC0CB3F5}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="25.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="7"/>
+    <workbookView windowWidth="19200" windowHeight="6080" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="tc021" sheetId="7" r:id="rId6"/>
     <sheet name="tc036" sheetId="8" r:id="rId7"/>
     <sheet name="tc037" sheetId="9" r:id="rId8"/>
+    <sheet name="tc018" sheetId="10" r:id="rId9"/>
+    <sheet name="tc042" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t>Project Name</t>
   </si>
@@ -124,6 +126,33 @@
   </si>
   <si>
     <t>TestSuite 10</t>
+  </si>
+  <si>
+    <t>test run</t>
+  </si>
+  <si>
+    <t>defect Id</t>
+  </si>
+  <si>
+    <t>Mayukh_Release</t>
+  </si>
+  <si>
+    <t>Mayukh_TestCycle_Execute</t>
+  </si>
+  <si>
+    <t>Mayukh_Cycle_Execute</t>
+  </si>
+  <si>
+    <t>TR-143</t>
+  </si>
+  <si>
+    <t>DF-315</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>videomorethan6MB.mp4</t>
   </si>
 </sst>
 </file>
@@ -136,7 +165,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,15 +177,27 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <sz val="8.2"/>
+      <color rgb="FF667084"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF475467"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8.25"/>
@@ -309,12 +350,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -627,144 +674,151 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,12 +1175,72 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="6" max="6" width="19.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" ht="20" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1206,36 +1320,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1260,54 +1374,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1344,10 +1458,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1391,10 +1505,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1428,30 +1542,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1466,7 +1580,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1479,31 +1593,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="7"/>
+    <workbookView windowWidth="18600" windowHeight="6080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="tc021" sheetId="7" r:id="rId6"/>
     <sheet name="tc036" sheetId="8" r:id="rId7"/>
     <sheet name="tc037" sheetId="9" r:id="rId8"/>
+    <sheet name="tc028" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>Project Name</t>
   </si>
@@ -66,15 +67,12 @@
     <t>New TestSuite 13-09-2025</t>
   </si>
   <si>
-    <t>TR-49</t>
+    <t>TR-129</t>
   </si>
   <si>
     <t>TCClick</t>
   </si>
   <si>
-    <t>TR-129</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -124,6 +122,24 @@
   </si>
   <si>
     <t>TestSuite 10</t>
+  </si>
+  <si>
+    <t>reqId</t>
+  </si>
+  <si>
+    <t>testCaseId1</t>
+  </si>
+  <si>
+    <t>testCaseId2</t>
+  </si>
+  <si>
+    <t>RQ-437</t>
+  </si>
+  <si>
+    <t>TC-370</t>
+  </si>
+  <si>
+    <t>TC-437</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1236,7 +1252,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1276,13 +1292,13 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1299,16 +1315,16 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1339,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C2"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1334,13 +1350,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1348,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1378,16 +1394,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1395,13 +1411,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1429,16 +1445,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1446,13 +1462,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1466,7 +1482,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1480,16 +1496,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1497,13 +1513,68 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="19.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.4166666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DE88C0-6F45-453C-96B3-351FB6FDB876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B396DA8C-40C3-4A4C-993D-D677C30BDCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
     <sheet name="tc006" sheetId="2" r:id="rId2"/>
     <sheet name="tc011" sheetId="3" r:id="rId3"/>
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
-    <sheet name="tc034" sheetId="7" r:id="rId5"/>
-    <sheet name="tc038" sheetId="8" r:id="rId6"/>
-    <sheet name="tc047" sheetId="9" r:id="rId7"/>
-    <sheet name="tc009" sheetId="6" r:id="rId8"/>
+    <sheet name="tc048" sheetId="10" r:id="rId5"/>
+    <sheet name="tc034" sheetId="7" r:id="rId6"/>
+    <sheet name="tc038" sheetId="8" r:id="rId7"/>
+    <sheet name="tc047" sheetId="9" r:id="rId8"/>
+    <sheet name="tc009" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
   <si>
     <t>Project Name</t>
   </si>
@@ -627,7 +628,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -697,6 +698,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17E5C9E-D753-4EB6-80FA-D8DF3FA3211B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1706F1A3-C876-4CA1-8FA2-06E687BAAE5B}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -772,7 +822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8040127A-7530-4E41-AF8A-D53FEF57EB50}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -831,11 +881,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8921BA6-C320-4E72-BAB5-593AAC0CB3F5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -903,7 +953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F9F5CB-D3AF-4B7B-8566-0953E152AAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" activeTab="9"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -17,26 +23,14 @@
     <sheet name="tc037" sheetId="9" r:id="rId8"/>
     <sheet name="tc018" sheetId="10" r:id="rId9"/>
     <sheet name="tc042" sheetId="11" r:id="rId10"/>
+    <sheet name="tc049" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
   <si>
     <t>Project Name</t>
   </si>
@@ -158,14 +152,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,11 +172,10 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.2"/>
+      <sz val="8.1999999999999993"/>
       <color rgb="FF667084"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -205,152 +192,8 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,194 +206,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -558,253 +215,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -813,68 +228,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1152,21 +521,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1175,31 +544,29 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="6" max="6" width="19.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1219,7 +586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" ht="20" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1241,25 +608,90 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714ABA46-20D8-4A5C-87B0-0DD168062CFC}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.1833333333333" customWidth="1"/>
-    <col min="2" max="2" width="25.0916666666667" customWidth="1"/>
-    <col min="3" max="3" width="24.5416666666667" customWidth="1"/>
-    <col min="4" max="4" width="24.8166666666667" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1298,152 +730,146 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E2"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="48.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="33.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="27.0916666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="48.6328125" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:K$1048576"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="8" max="8" width="28.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.75" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1457,11 +883,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1470,24 +896,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="29.4166666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.5833333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1504,11 +928,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1520,122 +944,116 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="37.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="21.5833333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="34.9166666666667" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
-    <col min="3" max="3" width="23.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="28.9166666666667" customWidth="1"/>
+    <col min="1" max="1" width="34.90625" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1679,6 +1097,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F9F5CB-D3AF-4B7B-8566-0953E152AAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A336EE37-7E10-4C3F-BAA9-9C572CBA8464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="tc018" sheetId="10" r:id="rId9"/>
     <sheet name="tc042" sheetId="11" r:id="rId10"/>
     <sheet name="tc049" sheetId="13" r:id="rId11"/>
+    <sheet name="tc050" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="39">
   <si>
     <t>Project Name</t>
   </si>
@@ -615,8 +616,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714ABA46-20D8-4A5C-87B0-0DD168062CFC}">
   <dimension ref="A1:H2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E063B7-5D0B-4C16-8CE4-C80D0330F93B}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" activeTab="9"/>
+    <workbookView windowWidth="19200" windowHeight="6080" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,7 @@
     <sheet name="tc021" sheetId="7" r:id="rId6"/>
     <sheet name="tc036" sheetId="8" r:id="rId7"/>
     <sheet name="tc037" sheetId="9" r:id="rId8"/>
-    <sheet name="tc018" sheetId="10" r:id="rId9"/>
-    <sheet name="tc042" sheetId="11" r:id="rId10"/>
+    <sheet name="tc044" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>Project Name</t>
   </si>
@@ -128,31 +127,19 @@
     <t>TestSuite 10</t>
   </si>
   <si>
-    <t>test run</t>
-  </si>
-  <si>
-    <t>defect Id</t>
-  </si>
-  <si>
-    <t>Mayukh_Release</t>
-  </si>
-  <si>
-    <t>Mayukh_TestCycle_Execute</t>
-  </si>
-  <si>
-    <t>Mayukh_Cycle_Execute</t>
-  </si>
-  <si>
-    <t>TR-143</t>
-  </si>
-  <si>
-    <t>DF-315</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>videomorethan6MB.mp4</t>
+    <t>r-id</t>
+  </si>
+  <si>
+    <t>t-id</t>
+  </si>
+  <si>
+    <t>New Release 11</t>
+  </si>
+  <si>
+    <t>RQ-437</t>
+  </si>
+  <si>
+    <t>TC-447</t>
   </si>
 </sst>
 </file>
@@ -165,7 +152,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,27 +164,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8.2"/>
-      <color rgb="FF667084"/>
-      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF475467"/>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8.25"/>
@@ -350,18 +331,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -674,52 +649,55 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,91 +712,82 @@
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1175,72 +1144,12 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="6" max="6" width="19.3333333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="20" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1320,36 +1229,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1374,54 +1283,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1458,10 +1367,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1505,10 +1414,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1542,30 +1451,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1581,7 +1490,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1593,30 +1502,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1629,52 +1538,44 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="35.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="14.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="14.5" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" activeTab="9"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="tc037" sheetId="9" r:id="rId8"/>
     <sheet name="tc018" sheetId="10" r:id="rId9"/>
     <sheet name="tc042" sheetId="11" r:id="rId10"/>
+    <sheet name="tc043" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
   <si>
     <t>Project Name</t>
   </si>
@@ -153,6 +154,9 @@
   </si>
   <si>
     <t>videomorethan6MB.mp4</t>
+  </si>
+  <si>
+    <t>TR-10000</t>
   </si>
 </sst>
 </file>
@@ -181,17 +185,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8.2"/>
       <color rgb="FF667084"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -808,13 +812,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1190,7 +1194,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1200,43 +1204,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="20" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1320,36 +1369,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1374,54 +1423,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1458,10 +1507,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1505,10 +1554,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1542,30 +1591,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1593,30 +1642,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1638,19 +1687,19 @@
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F1" t="s">
@@ -1658,22 +1707,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>36</v>
       </c>
     </row>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="18600" windowHeight="6080" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="tc037" sheetId="9" r:id="rId8"/>
     <sheet name="tc018" sheetId="10" r:id="rId9"/>
     <sheet name="tc042" sheetId="11" r:id="rId10"/>
-    <sheet name="tc043" sheetId="12" r:id="rId11"/>
+    <sheet name="tc029" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>Project Name</t>
   </si>
@@ -156,7 +156,76 @@
     <t>videomorethan6MB.mp4</t>
   </si>
   <si>
-    <t>TR-10000</t>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>reqId</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>New Release 10-9-2025</t>
+  </si>
+  <si>
+    <t>RQ-437</t>
+  </si>
+  <si>
+    <t>TC-370</t>
+  </si>
+  <si>
+    <t>TC-437</t>
+  </si>
+  <si>
+    <t>TC-447</t>
+  </si>
+  <si>
+    <t>TC-453</t>
+  </si>
+  <si>
+    <t>TC-454</t>
+  </si>
+  <si>
+    <t>TC-455</t>
+  </si>
+  <si>
+    <t>TC-457</t>
+  </si>
+  <si>
+    <t>TC-458</t>
+  </si>
+  <si>
+    <t>TC-461</t>
+  </si>
+  <si>
+    <t>TC-462</t>
   </si>
 </sst>
 </file>
@@ -185,17 +254,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8.2"/>
       <color rgb="FF667084"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -808,13 +877,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1179,7 +1246,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1204,42 +1271,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1252,40 +1319,97 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="2" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1424,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1369,36 +1493,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1423,54 +1547,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1507,10 +1631,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1554,10 +1678,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1591,30 +1715,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1642,30 +1766,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1687,19 +1811,19 @@
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F1" t="s">
@@ -1707,22 +1831,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>36</v>
       </c>
     </row>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -15,12 +15,13 @@
     <sheet name="tc036" r:id="rId9" sheetId="7"/>
     <sheet name="tc037" r:id="rId10" sheetId="8"/>
     <sheet name="tc022" r:id="rId11" sheetId="9"/>
+    <sheet name="tc046" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
   <si>
     <t/>
   </si>
@@ -128,6 +129,30 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>Relese</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Suit</t>
+  </si>
+  <si>
+    <t>RQId</t>
+  </si>
+  <si>
+    <t>TCId</t>
+  </si>
+  <si>
+    <t>RQ-437</t>
+  </si>
+  <si>
+    <t>TC-370</t>
   </si>
 </sst>
 </file>
@@ -193,6 +218,59 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F4A2E6-F5F4-4012-A223-800DA5A271A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6080" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -18,26 +24,14 @@
     <sheet name="tc018" sheetId="10" r:id="rId9"/>
     <sheet name="tc042" sheetId="11" r:id="rId10"/>
     <sheet name="tc029" sheetId="12" r:id="rId11"/>
+    <sheet name="tc050" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>Project Name</t>
   </si>
@@ -231,14 +225,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,11 +245,10 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.2"/>
+      <sz val="8.1999999999999993"/>
       <color rgb="FF667084"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -279,151 +266,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,194 +285,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -631,253 +294,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -890,62 +311,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1223,21 +604,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1252,25 +633,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="6" max="6" width="19.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1312,20 +691,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="21" customWidth="1"/>
   </cols>
@@ -1414,25 +791,90 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C4795-9F9A-412F-827B-3989E17F0C7B}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.1833333333333" customWidth="1"/>
-    <col min="2" max="2" width="25.0916666666667" customWidth="1"/>
-    <col min="3" max="3" width="24.5416666666667" customWidth="1"/>
-    <col min="4" max="4" width="24.8166666666667" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1471,25 +913,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E2"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="48.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="33.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="27.0916666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="48.6328125" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1528,22 +968,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:K$1048576"/>
+      <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="8" max="8" width="28.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1600,23 +1038,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.75" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1630,7 +1066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1643,24 +1079,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="29.4166666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.5833333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1677,7 +1111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1693,28 +1127,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="37.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="21.5833333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1728,7 +1160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1744,28 +1176,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="34.9166666666667" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
-    <col min="3" max="3" width="23.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="28.9166666666667" customWidth="1"/>
+    <col min="1" max="1" width="34.90625" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1779,7 +1209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1795,20 +1225,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1852,6 +1280,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6080" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="tc018" sheetId="10" r:id="rId9"/>
     <sheet name="tc042" sheetId="11" r:id="rId10"/>
     <sheet name="tc029" sheetId="12" r:id="rId11"/>
+    <sheet name="tc044" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>Project Name</t>
   </si>
@@ -226,6 +227,15 @@
   </si>
   <si>
     <t>TC-462</t>
+  </si>
+  <si>
+    <t>r-id</t>
+  </si>
+  <si>
+    <t>t-id</t>
+  </si>
+  <si>
+    <t>New Release 11</t>
   </si>
 </sst>
 </file>
@@ -238,7 +248,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,14 +260,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,149 +763,151 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,7 +1264,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1271,42 +1289,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1321,7 +1339,7 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1410,6 +1428,55 @@
       </c>
       <c r="M2" t="s">
         <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="34.75" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.5" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1493,36 +1560,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1547,54 +1614,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1631,10 +1698,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1652,8 +1719,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1678,10 +1745,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1715,30 +1782,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1754,7 +1821,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1766,30 +1833,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1811,19 +1878,19 @@
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F1" t="s">
@@ -1831,22 +1898,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>36</v>
       </c>
     </row>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6080" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="18600" windowHeight="6080" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="tc002" sheetId="1" r:id="rId1"/>
-    <sheet name="tc006" sheetId="2" r:id="rId2"/>
+    <sheet name="tc019" sheetId="2" r:id="rId2"/>
     <sheet name="tc011" sheetId="3" r:id="rId3"/>
     <sheet name="tc013" sheetId="5" r:id="rId4"/>
     <sheet name="tc009" sheetId="6" r:id="rId5"/>
@@ -18,6 +18,8 @@
     <sheet name="tc018" sheetId="10" r:id="rId9"/>
     <sheet name="tc042" sheetId="11" r:id="rId10"/>
     <sheet name="tc029" sheetId="12" r:id="rId11"/>
+    <sheet name="tc047" sheetId="15" r:id="rId12"/>
+    <sheet name="tc001" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>Project Name</t>
   </si>
@@ -69,15 +71,12 @@
     <t>New TestSuite 13-09-2025</t>
   </si>
   <si>
-    <t>TR-49</t>
+    <t>TR-129</t>
   </si>
   <si>
     <t>TCClick</t>
   </si>
   <si>
-    <t>TR-129</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -159,73 +158,40 @@
     <t>projectName</t>
   </si>
   <si>
-    <t>reqId</t>
-  </si>
-  <si>
-    <t>TC_001</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>TC_004</t>
-  </si>
-  <si>
-    <t>TC_005</t>
-  </si>
-  <si>
-    <t>TC_006</t>
-  </si>
-  <si>
-    <t>TC_007</t>
-  </si>
-  <si>
-    <t>TC_008</t>
-  </si>
-  <si>
-    <t>TC_009</t>
-  </si>
-  <si>
-    <t>TC_010</t>
-  </si>
-  <si>
-    <t>New Release 10-9-2025</t>
-  </si>
-  <si>
-    <t>RQ-437</t>
-  </si>
-  <si>
-    <t>TC-370</t>
-  </si>
-  <si>
-    <t>TC-437</t>
-  </si>
-  <si>
-    <t>TC-447</t>
-  </si>
-  <si>
-    <t>TC-453</t>
-  </si>
-  <si>
-    <t>TC-454</t>
-  </si>
-  <si>
-    <t>TC-455</t>
-  </si>
-  <si>
-    <t>TC-457</t>
-  </si>
-  <si>
-    <t>TC-458</t>
-  </si>
-  <si>
-    <t>TC-461</t>
-  </si>
-  <si>
-    <t>TC-462</t>
+    <t>releaseName1</t>
+  </si>
+  <si>
+    <t>releaseName2</t>
+  </si>
+  <si>
+    <t>New Release 123</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>SelectRq</t>
+  </si>
+  <si>
+    <t>Tc_id</t>
+  </si>
+  <si>
+    <t>Epic Mohit</t>
+  </si>
+  <si>
+    <t>Mohit Feature</t>
+  </si>
+  <si>
+    <t>RQ-489</t>
+  </si>
+  <si>
+    <t>TC-427</t>
+  </si>
+  <si>
+    <t>Release 039</t>
   </si>
 </sst>
 </file>
@@ -238,7 +204,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,14 +216,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,149 +719,151 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,7 +1220,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1271,43 +1245,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1319,97 +1293,139 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>62</v>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" ht="14.5" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1440,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+      <selection activeCell="A1" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1493,37 +1509,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1547,55 +1563,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1621,24 +1637,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1665,30 +1681,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1715,31 +1731,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1754,7 +1770,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1766,31 +1782,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1811,43 +1827,43 @@
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="18" activeTab="15"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="25" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -15,33 +15,33 @@
     <sheet name="tc003" sheetId="2" r:id="rId6"/>
     <sheet name="tc004" sheetId="3" r:id="rId7"/>
     <sheet name="tc006" sheetId="5" r:id="rId8"/>
-    <sheet name="tc044" sheetId="23" r:id="rId9"/>
-    <sheet name="tc007" sheetId="8" r:id="rId10"/>
-    <sheet name="tc009" sheetId="13" r:id="rId11"/>
-    <sheet name="tc011" sheetId="6" r:id="rId12"/>
-    <sheet name="tc013" sheetId="7" r:id="rId13"/>
-    <sheet name="tc015" sheetId="9" r:id="rId14"/>
-    <sheet name="tc016" sheetId="11" r:id="rId15"/>
-    <sheet name="tc018" sheetId="18" r:id="rId16"/>
-    <sheet name="tc042" sheetId="20" r:id="rId17"/>
-    <sheet name="tc043" sheetId="26" r:id="rId18"/>
-    <sheet name="tc037" sheetId="34" r:id="rId19"/>
-    <sheet name="tc021" sheetId="14" r:id="rId20"/>
-    <sheet name="tc022" sheetId="30" r:id="rId21"/>
-    <sheet name="tc024" sheetId="31" r:id="rId22"/>
-    <sheet name="tc031" sheetId="32" r:id="rId23"/>
-    <sheet name="tc023" sheetId="10" r:id="rId24"/>
-    <sheet name="tc034" sheetId="15" r:id="rId25"/>
-    <sheet name="tc036" sheetId="12" r:id="rId26"/>
-    <sheet name="tc038" sheetId="17" r:id="rId27"/>
-    <sheet name="tc039" sheetId="16" r:id="rId28"/>
-    <sheet name="tc040" sheetId="19" r:id="rId29"/>
-    <sheet name="tc045" sheetId="25" r:id="rId30"/>
-    <sheet name="tc046" sheetId="33" r:id="rId31"/>
-    <sheet name="tc047" sheetId="21" r:id="rId32"/>
-    <sheet name="tc048" sheetId="22" r:id="rId33"/>
-    <sheet name="tc049" sheetId="24" r:id="rId34"/>
-    <sheet name="tc050" sheetId="36" r:id="rId35"/>
+    <sheet name="tc007" sheetId="8" r:id="rId9"/>
+    <sheet name="tc009" sheetId="13" r:id="rId10"/>
+    <sheet name="tc011" sheetId="6" r:id="rId11"/>
+    <sheet name="tc013" sheetId="7" r:id="rId12"/>
+    <sheet name="tc015" sheetId="9" r:id="rId13"/>
+    <sheet name="tc016" sheetId="11" r:id="rId14"/>
+    <sheet name="tc018" sheetId="18" r:id="rId15"/>
+    <sheet name="tc042" sheetId="20" r:id="rId16"/>
+    <sheet name="tc043" sheetId="26" r:id="rId17"/>
+    <sheet name="tc037" sheetId="34" r:id="rId18"/>
+    <sheet name="tc021" sheetId="14" r:id="rId19"/>
+    <sheet name="tc022" sheetId="30" r:id="rId20"/>
+    <sheet name="tc024" sheetId="31" r:id="rId21"/>
+    <sheet name="tc031" sheetId="32" r:id="rId22"/>
+    <sheet name="tc023" sheetId="10" r:id="rId23"/>
+    <sheet name="tc034" sheetId="15" r:id="rId24"/>
+    <sheet name="tc036" sheetId="12" r:id="rId25"/>
+    <sheet name="tc038" sheetId="17" r:id="rId26"/>
+    <sheet name="tc039" sheetId="16" r:id="rId27"/>
+    <sheet name="tc040" sheetId="19" r:id="rId28"/>
+    <sheet name="tc045" sheetId="25" r:id="rId29"/>
+    <sheet name="tc046" sheetId="33" r:id="rId30"/>
+    <sheet name="tc047" sheetId="21" r:id="rId31"/>
+    <sheet name="tc048" sheetId="22" r:id="rId32"/>
+    <sheet name="tc049" sheetId="24" r:id="rId33"/>
+    <sheet name="tc050" sheetId="36" r:id="rId34"/>
+    <sheet name="tc044" sheetId="37" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="85">
   <si>
     <t>projectName</t>
   </si>
@@ -105,7 +105,7 @@
     <t>TestSuite 44</t>
   </si>
   <si>
-    <t>TR-202</t>
+    <t>TR-129</t>
   </si>
   <si>
     <t>reqId</t>
@@ -174,151 +174,148 @@
     <t>TR-49</t>
   </si>
   <si>
+    <t>test run</t>
+  </si>
+  <si>
+    <t>Mayukh_Release</t>
+  </si>
+  <si>
+    <t>Mayukh_TestCycle_Execute</t>
+  </si>
+  <si>
+    <t>Mayukh_Cycle_Execute</t>
+  </si>
+  <si>
+    <t>TR-143</t>
+  </si>
+  <si>
+    <t>TR-53</t>
+  </si>
+  <si>
+    <t>TCClick</t>
+  </si>
+  <si>
+    <t>stepno</t>
+  </si>
+  <si>
+    <t>actual result</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>user able to navigate to author tab</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>defectSummary</t>
+  </si>
+  <si>
+    <t>DF-315</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>videomorethan6MB.mp4</t>
+  </si>
+  <si>
+    <t>TR-10000</t>
+  </si>
+  <si>
+    <t>defectID</t>
+  </si>
+  <si>
+    <t>DF123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summary </t>
+  </si>
+  <si>
+    <t>stauts</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new tc </t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>searchTestRunName</t>
+  </si>
+  <si>
+    <t>New Release 11</t>
+  </si>
+  <si>
+    <t>TR-116</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>exstatus</t>
+  </si>
+  <si>
+    <t>Incompleted</t>
+  </si>
+  <si>
+    <t>projectname</t>
+  </si>
+  <si>
+    <t>requirementID</t>
+  </si>
+  <si>
+    <t>testCaseID</t>
+  </si>
+  <si>
+    <t>successMsg</t>
+  </si>
+  <si>
+    <t>Test runs created successfully.</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>SelectRq</t>
+  </si>
+  <si>
+    <t>Tc_id</t>
+  </si>
+  <si>
+    <t>Epic Mohit</t>
+  </si>
+  <si>
+    <t>Mohit Feature</t>
+  </si>
+  <si>
+    <t>RQ-489</t>
+  </si>
+  <si>
+    <t>TC-427</t>
+  </si>
+  <si>
     <t>r-id</t>
   </si>
   <si>
     <t>t-id</t>
   </si>
   <si>
-    <t>New Release 11</t>
-  </si>
-  <si>
     <t>TC-447</t>
-  </si>
-  <si>
-    <t>test run</t>
-  </si>
-  <si>
-    <t>Mayukh_Release</t>
-  </si>
-  <si>
-    <t>Mayukh_TestCycle_Execute</t>
-  </si>
-  <si>
-    <t>Mayukh_Cycle_Execute</t>
-  </si>
-  <si>
-    <t>TR-143</t>
-  </si>
-  <si>
-    <t>TR-53</t>
-  </si>
-  <si>
-    <t>TCClick</t>
-  </si>
-  <si>
-    <t>TR-129</t>
-  </si>
-  <si>
-    <t>stepno</t>
-  </si>
-  <si>
-    <t>actual result</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
-    <t>user able to navigate to author tab</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>defectSummary</t>
-  </si>
-  <si>
-    <t>DF-315</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>videomorethan6MB.mp4</t>
-  </si>
-  <si>
-    <t>TR-10000</t>
-  </si>
-  <si>
-    <t>defectID</t>
-  </si>
-  <si>
-    <t>DF123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summary </t>
-  </si>
-  <si>
-    <t>stauts</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new tc </t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>searchTestRunName</t>
-  </si>
-  <si>
-    <t>TR-116</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>exstatus</t>
-  </si>
-  <si>
-    <t>Incompleted</t>
-  </si>
-  <si>
-    <t>projectname</t>
-  </si>
-  <si>
-    <t>requirementID</t>
-  </si>
-  <si>
-    <t>testCaseID</t>
-  </si>
-  <si>
-    <t>successMsg</t>
-  </si>
-  <si>
-    <t>Test runs created successfully.</t>
-  </si>
-  <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>SelectRq</t>
-  </si>
-  <si>
-    <t>Tc_id</t>
-  </si>
-  <si>
-    <t>Epic Mohit</t>
-  </si>
-  <si>
-    <t>Mohit Feature</t>
-  </si>
-  <si>
-    <t>RQ-489</t>
-  </si>
-  <si>
-    <t>TC-427</t>
   </si>
 </sst>
 </file>
@@ -331,7 +328,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,13 +354,6 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="8.2"/>
@@ -376,13 +366,6 @@
       <color rgb="FF475467"/>
       <name val="Arial"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -838,19 +821,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,132 +851,126 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -993,16 +979,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1352,7 +1334,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="22.5727272727273" customWidth="1"/>
+    <col min="1" max="1" width="22.575" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1381,57 +1363,6 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1440,8 +1371,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="38.7090909090909" customWidth="1"/>
-    <col min="2" max="2" width="17.8545454545455" customWidth="1"/>
+    <col min="1" max="1" width="38.7083333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.8583333333333" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1464,16 +1395,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -1484,10 +1415,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.4272727272727" customWidth="1"/>
-    <col min="2" max="2" width="31.2818181818182" customWidth="1"/>
+    <col min="1" max="1" width="28.425" customWidth="1"/>
+    <col min="2" max="2" width="31.2833333333333" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="28.5727272727273" customWidth="1"/>
+    <col min="4" max="4" width="28.575" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1504,7 +1435,7 @@
         <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1521,16 +1452,16 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -1541,70 +1472,70 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="26.5727272727273" customWidth="1"/>
-    <col min="7" max="7" width="32.5727272727273" customWidth="1"/>
-    <col min="8" max="8" width="29.7090909090909" customWidth="1"/>
+    <col min="1" max="1" width="26.575" customWidth="1"/>
+    <col min="7" max="7" width="32.575" customWidth="1"/>
+    <col min="8" max="8" width="29.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -1616,64 +1547,64 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="14.5" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G2"/>
@@ -1685,70 +1616,70 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>53</v>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="20.4272727272727" customWidth="1"/>
-    <col min="4" max="4" width="18.4272727272727" customWidth="1"/>
+    <col min="3" max="3" width="20.425" customWidth="1"/>
+    <col min="4" max="4" width="18.425" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1766,39 +1697,39 @@
         <v>31</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="F2" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -1826,39 +1757,39 @@
         <v>31</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="F2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -1869,8 +1800,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.2818181818182" customWidth="1"/>
-    <col min="2" max="2" width="25.1363636363636" customWidth="1"/>
+    <col min="1" max="1" width="19.2833333333333" customWidth="1"/>
+    <col min="2" max="2" width="25.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1884,30 +1815,30 @@
         <v>31</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -1952,19 +1883,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.8545454545455" customWidth="1"/>
-    <col min="2" max="2" width="19.8545454545455" customWidth="1"/>
+    <col min="1" max="1" width="36.575" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.575" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1977,8 +1910,8 @@
       <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
+      <c r="D1" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1989,33 +1922,31 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="36.5727272727273" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.5727272727273" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="1" max="1" width="18.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2028,8 +1959,8 @@
       <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>60</v>
+      <c r="D1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2040,19 +1971,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2074,13 +2005,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2091,25 +2022,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2118,7 +2049,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1363636363636" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="17.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
@@ -2131,13 +2062,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2148,25 +2079,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2175,7 +2106,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="23.575" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
@@ -2188,13 +2119,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2205,25 +2136,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -2234,40 +2165,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.4272727272727" customWidth="1"/>
-    <col min="2" max="2" width="18.1363636363636" customWidth="1"/>
-    <col min="3" max="3" width="18.4272727272727" customWidth="1"/>
+    <col min="1" max="1" width="28.425" customWidth="1"/>
+    <col min="2" max="2" width="18.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -2278,62 +2209,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="8" max="8" width="31.4272727272727" customWidth="1"/>
+    <col min="8" max="8" width="31.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2345,7 +2276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -2356,10 +2287,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.7090909090909" customWidth="1"/>
-    <col min="2" max="2" width="19.4272727272727" customWidth="1"/>
-    <col min="3" max="3" width="21.1363636363636" customWidth="1"/>
-    <col min="4" max="4" width="17.4272727272727" customWidth="1"/>
+    <col min="1" max="1" width="27.7083333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.425" customWidth="1"/>
+    <col min="3" max="3" width="21.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2396,7 +2327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2408,52 +2339,52 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>71</v>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
@@ -2464,33 +2395,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="28.5727272727273" customWidth="1"/>
-    <col min="2" max="2" width="16.7090909090909" customWidth="1"/>
+    <col min="1" max="1" width="28.575" customWidth="1"/>
+    <col min="2" max="2" width="16.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -2502,35 +2433,35 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="15.8545454545455" customWidth="1"/>
-    <col min="3" max="3" width="15.2818181818182" customWidth="1"/>
-    <col min="4" max="4" width="11.4272727272727" customWidth="1"/>
-    <col min="5" max="5" width="27.1363636363636" customWidth="1"/>
+    <col min="2" max="2" width="15.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.425" customWidth="1"/>
+    <col min="5" max="5" width="27.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -2539,7 +2470,70 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="12.425" customWidth="1"/>
+    <col min="3" max="3" width="12.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.575" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2554,14 +2548,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.5727272727273" customWidth="1"/>
-    <col min="3" max="3" width="15.1363636363636" customWidth="1"/>
-    <col min="4" max="4" width="13.1363636363636" customWidth="1"/>
+    <col min="1" max="2" width="18.575" customWidth="1"/>
+    <col min="3" max="3" width="15.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2610,20 +2604,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.4272727272727" customWidth="1"/>
-    <col min="3" max="3" width="12.2818181818182" customWidth="1"/>
-    <col min="4" max="4" width="12.5727272727273" customWidth="1"/>
-  </cols>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2635,10 +2623,10 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:6">
@@ -2670,52 +2658,64 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="24.1363636363636" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" ht="28" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
+      <c r="G1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2725,75 +2725,6 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -2805,46 +2736,46 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>47</v>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -2856,64 +2787,64 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -2924,68 +2855,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="29.8545454545455" customWidth="1"/>
+    <col min="1" max="1" width="29.8583333333333" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="26.8545454545455" customWidth="1"/>
-    <col min="4" max="5" width="22.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="18.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="42.8545454545455" customWidth="1"/>
+    <col min="3" max="3" width="26.8583333333333" customWidth="1"/>
+    <col min="4" max="5" width="22.7083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.7083333333333" customWidth="1"/>
+    <col min="8" max="8" width="42.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" ht="28" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" ht="56" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3001,10 +2977,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.8545454545455" customWidth="1"/>
-    <col min="2" max="2" width="15.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18.7090909090909" customWidth="1"/>
-    <col min="4" max="4" width="17.5727272727273" customWidth="1"/>
+    <col min="1" max="1" width="19.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.575" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3064,7 +3040,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3085,9 +3061,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.7090909090909" customWidth="1"/>
-    <col min="2" max="2" width="23.5727272727273" customWidth="1"/>
-    <col min="3" max="3" width="20.7090909090909" customWidth="1"/>
+    <col min="1" max="1" width="28.7083333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.575" customWidth="1"/>
+    <col min="3" max="3" width="20.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3129,10 +3105,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="32.1363636363636" customWidth="1"/>
-    <col min="2" max="2" width="19.2818181818182" customWidth="1"/>
-    <col min="3" max="3" width="16.4272727272727" customWidth="1"/>
-    <col min="4" max="4" width="14.2818181818182" customWidth="1"/>
+    <col min="1" max="1" width="32.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.425" customWidth="1"/>
+    <col min="4" max="4" width="14.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3180,11 +3156,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.8545454545455" customWidth="1"/>
-    <col min="2" max="2" width="36.8545454545455" customWidth="1"/>
+    <col min="1" max="1" width="38.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="36.8583333333333" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="28.5727272727273" customWidth="1"/>
-    <col min="5" max="5" width="19.1363636363636" customWidth="1"/>
+    <col min="4" max="4" width="28.575" customWidth="1"/>
+    <col min="5" max="5" width="19.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3230,51 +3206,47 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="27.8545454545455" customWidth="1"/>
-    <col min="2" max="2" width="18.4272727272727" customWidth="1"/>
-    <col min="3" max="3" width="18.5727272727273" customWidth="1"/>
-    <col min="4" max="4" width="18.2818181818182" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.5" spans="1:6">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="14.5" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="18" activeTab="15"/>
+    <workbookView windowWidth="18600" windowHeight="6080" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <sheet name="tc048" sheetId="22" r:id="rId33"/>
     <sheet name="tc049" sheetId="24" r:id="rId34"/>
     <sheet name="tc050" sheetId="36" r:id="rId35"/>
+    <sheet name="tc029" sheetId="38" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="89">
   <si>
     <t>projectName</t>
   </si>
@@ -319,6 +320,15 @@
   </si>
   <si>
     <t>TC-427</t>
+  </si>
+  <si>
+    <t>releaseName1</t>
+  </si>
+  <si>
+    <t>releaseName2</t>
+  </si>
+  <si>
+    <t>New Release 123</t>
   </si>
 </sst>
 </file>
@@ -326,12 +336,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,13 +367,6 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="8.2"/>
@@ -376,13 +379,6 @@
       <color rgb="FF475467"/>
       <name val="Arial"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -838,19 +834,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,131 +864,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -993,16 +989,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1352,7 +1344,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="22.5727272727273" customWidth="1"/>
+    <col min="1" max="1" width="22.575" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1390,36 +1382,36 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1440,30 +1432,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="38.7090909090909" customWidth="1"/>
-    <col min="2" max="2" width="17.8545454545455" customWidth="1"/>
+    <col min="1" max="1" width="38.7083333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.8583333333333" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1484,10 +1476,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.4272727272727" customWidth="1"/>
-    <col min="2" max="2" width="31.2818181818182" customWidth="1"/>
+    <col min="1" max="1" width="28.425" customWidth="1"/>
+    <col min="2" max="2" width="31.2833333333333" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="28.5727272727273" customWidth="1"/>
+    <col min="4" max="4" width="28.575" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1541,9 +1533,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="26.5727272727273" customWidth="1"/>
-    <col min="7" max="7" width="32.5727272727273" customWidth="1"/>
-    <col min="8" max="8" width="29.7090909090909" customWidth="1"/>
+    <col min="1" max="1" width="26.575" customWidth="1"/>
+    <col min="7" max="7" width="32.575" customWidth="1"/>
+    <col min="8" max="8" width="29.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1741,31 +1733,31 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="20.4272727272727" customWidth="1"/>
-    <col min="4" max="4" width="18.4272727272727" customWidth="1"/>
+    <col min="3" max="3" width="20.425" customWidth="1"/>
+    <col min="4" max="4" width="18.425" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F1" t="s">
@@ -1773,22 +1765,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1813,19 +1805,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F1" t="s">
@@ -1833,22 +1825,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1869,35 +1861,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.2818181818182" customWidth="1"/>
-    <col min="2" max="2" width="25.1363636363636" customWidth="1"/>
+    <col min="1" max="1" width="19.2833333333333" customWidth="1"/>
+    <col min="2" max="2" width="25.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1919,30 +1911,30 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1963,18 +1955,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.8545454545455" customWidth="1"/>
-    <col min="2" max="2" width="19.8545454545455" customWidth="1"/>
+    <col min="1" max="1" width="18.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -1982,13 +1974,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -2012,37 +2004,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="36.5727272727273" customWidth="1"/>
+    <col min="1" max="1" width="36.575" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.5727272727273" customWidth="1"/>
+    <col min="3" max="3" width="14.575" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2064,16 +2056,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
@@ -2084,16 +2076,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E2" t="s">
@@ -2118,19 +2110,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1363636363636" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="17.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
@@ -2141,16 +2133,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E2" t="s">
@@ -2175,19 +2167,19 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="23.575" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
@@ -2198,16 +2190,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E2" t="s">
@@ -2234,9 +2226,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.4272727272727" customWidth="1"/>
-    <col min="2" max="2" width="18.1363636363636" customWidth="1"/>
-    <col min="3" max="3" width="18.4272727272727" customWidth="1"/>
+    <col min="1" max="1" width="28.425" customWidth="1"/>
+    <col min="2" max="2" width="18.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2278,32 +2270,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="8" max="8" width="31.4272727272727" customWidth="1"/>
+    <col min="8" max="8" width="31.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I1" t="s">
@@ -2311,28 +2303,28 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I2">
@@ -2356,37 +2348,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.7090909090909" customWidth="1"/>
-    <col min="2" max="2" width="19.4272727272727" customWidth="1"/>
-    <col min="3" max="3" width="21.1363636363636" customWidth="1"/>
-    <col min="4" max="4" width="17.4272727272727" customWidth="1"/>
+    <col min="1" max="1" width="27.7083333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.425" customWidth="1"/>
+    <col min="3" max="3" width="21.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2408,42 +2400,42 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2464,23 +2456,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="28.5727272727273" customWidth="1"/>
-    <col min="2" max="2" width="16.7090909090909" customWidth="1"/>
+    <col min="1" max="1" width="28.575" customWidth="1"/>
+    <col min="2" max="2" width="16.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2502,17 +2494,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="15.8545454545455" customWidth="1"/>
-    <col min="3" max="3" width="15.2818181818182" customWidth="1"/>
-    <col min="4" max="4" width="11.4272727272727" customWidth="1"/>
-    <col min="5" max="5" width="27.1363636363636" customWidth="1"/>
+    <col min="2" max="2" width="15.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.425" customWidth="1"/>
+    <col min="5" max="5" width="27.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2526,10 +2518,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C2" t="s">
@@ -2553,28 +2545,28 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="18.5727272727273" customWidth="1"/>
-    <col min="3" max="3" width="15.1363636363636" customWidth="1"/>
-    <col min="4" max="4" width="13.1363636363636" customWidth="1"/>
+    <col min="1" max="2" width="18.575" customWidth="1"/>
+    <col min="3" max="3" width="15.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
@@ -2582,16 +2574,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
@@ -2616,9 +2608,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.4272727272727" customWidth="1"/>
-    <col min="3" max="3" width="12.2818181818182" customWidth="1"/>
-    <col min="4" max="4" width="12.5727272727273" customWidth="1"/>
+    <col min="2" max="2" width="12.425" customWidth="1"/>
+    <col min="3" max="3" width="12.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.575" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2641,8 +2633,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:6">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2676,7 +2668,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.1363636363636" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="24.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2699,7 +2691,7 @@
       </c>
     </row>
     <row r="2" ht="28" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2730,127 +2722,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -2869,6 +2741,126 @@
         <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -2924,12 +2916,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="29.8545454545455" customWidth="1"/>
+    <col min="1" max="1" width="29.8583333333333" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="26.8545454545455" customWidth="1"/>
-    <col min="4" max="5" width="22.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="18.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="42.8545454545455" customWidth="1"/>
+    <col min="3" max="3" width="26.8583333333333" customWidth="1"/>
+    <col min="4" max="5" width="22.7083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.7083333333333" customWidth="1"/>
+    <col min="8" max="8" width="42.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="1:8">
@@ -2990,6 +2982,50 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="26.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.5833333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -3001,43 +3037,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.8545454545455" customWidth="1"/>
-    <col min="2" max="2" width="15.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18.7090909090909" customWidth="1"/>
-    <col min="4" max="4" width="17.5727272727273" customWidth="1"/>
+    <col min="1" max="1" width="19.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.575" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3059,12 +3095,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3085,9 +3121,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.7090909090909" customWidth="1"/>
-    <col min="2" max="2" width="23.5727272727273" customWidth="1"/>
-    <col min="3" max="3" width="20.7090909090909" customWidth="1"/>
+    <col min="1" max="1" width="28.7083333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.575" customWidth="1"/>
+    <col min="3" max="3" width="20.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3129,10 +3165,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="32.1363636363636" customWidth="1"/>
-    <col min="2" max="2" width="19.2818181818182" customWidth="1"/>
-    <col min="3" max="3" width="16.4272727272727" customWidth="1"/>
-    <col min="4" max="4" width="14.2818181818182" customWidth="1"/>
+    <col min="1" max="1" width="32.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.425" customWidth="1"/>
+    <col min="4" max="4" width="14.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3180,11 +3216,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.8545454545455" customWidth="1"/>
-    <col min="2" max="2" width="36.8545454545455" customWidth="1"/>
+    <col min="1" max="1" width="38.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="36.8583333333333" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="28.5727272727273" customWidth="1"/>
-    <col min="5" max="5" width="19.1363636363636" customWidth="1"/>
+    <col min="4" max="4" width="28.575" customWidth="1"/>
+    <col min="5" max="5" width="19.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3238,17 +3274,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="27.8545454545455" customWidth="1"/>
-    <col min="2" max="2" width="18.4272727272727" customWidth="1"/>
-    <col min="3" max="3" width="18.5727272727273" customWidth="1"/>
-    <col min="4" max="4" width="18.2818181818182" customWidth="1"/>
+    <col min="1" max="1" width="27.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.425" customWidth="1"/>
+    <col min="3" max="3" width="18.575" customWidth="1"/>
+    <col min="4" max="4" width="18.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3261,10 +3297,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" ht="14.5" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="1" t="s">

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="25" activeTab="34"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -966,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -978,9 +978,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1377,24 +1374,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1684,19 +1681,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F1" t="s">
@@ -1704,22 +1701,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1744,19 +1741,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F1" t="s">
@@ -1764,22 +1761,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1805,30 +1802,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1850,30 +1847,30 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1901,30 +1898,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1950,13 +1947,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -1964,13 +1961,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -1995,16 +1992,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E1" t="s">
@@ -2015,16 +2012,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E2" t="s">
@@ -2052,16 +2049,16 @@
   <sheetFormatPr defaultColWidth="17.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E1" t="s">
@@ -2072,16 +2069,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E2" t="s">
@@ -2109,16 +2106,16 @@
   <sheetFormatPr defaultColWidth="23.575" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E1" t="s">
@@ -2129,16 +2126,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E2" t="s">
@@ -2294,30 +2291,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2517,7 +2514,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2547,8 +2544,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -2559,16 +2556,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
@@ -2576,16 +2573,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
@@ -2630,7 +2627,7 @@
       </c>
     </row>
     <row r="2" ht="28" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2926,8 +2923,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2984,36 +2981,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3035,12 +3032,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3215,36 +3212,36 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>41</v>
       </c>
     </row>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="86">
   <si>
     <t>projectName</t>
   </si>
@@ -105,94 +105,97 @@
     <t>TestSuite 44</t>
   </si>
   <si>
+    <t>TR-202</t>
+  </si>
+  <si>
+    <t>reqId</t>
+  </si>
+  <si>
+    <t>testCaseId1</t>
+  </si>
+  <si>
+    <t>testCaseId2</t>
+  </si>
+  <si>
+    <t>New Release 10-9-2025</t>
+  </si>
+  <si>
+    <t>RQ-437</t>
+  </si>
+  <si>
+    <t>TC-370</t>
+  </si>
+  <si>
+    <t>TC-437</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>parentModule</t>
+  </si>
+  <si>
+    <t>subTestCycle</t>
+  </si>
+  <si>
+    <t>TestCycle 039</t>
+  </si>
+  <si>
+    <t>subTestsuit</t>
+  </si>
+  <si>
+    <t>TestSuite 10</t>
+  </si>
+  <si>
+    <t>Projectname</t>
+  </si>
+  <si>
+    <t>ReleaseName</t>
+  </si>
+  <si>
+    <t>CycleName</t>
+  </si>
+  <si>
+    <t>SuiteName</t>
+  </si>
+  <si>
+    <t>SearchTR</t>
+  </si>
+  <si>
+    <t>New Release 12-09-2025</t>
+  </si>
+  <si>
+    <t>New TestCycle 13-09-2025</t>
+  </si>
+  <si>
+    <t>New TestSuite 13-09-2025</t>
+  </si>
+  <si>
+    <t>TR-49</t>
+  </si>
+  <si>
+    <t>test run</t>
+  </si>
+  <si>
+    <t>Mayukh_Release</t>
+  </si>
+  <si>
+    <t>Mayukh_TestCycle_Execute</t>
+  </si>
+  <si>
+    <t>Mayukh_Cycle_Execute</t>
+  </si>
+  <si>
+    <t>TR-143</t>
+  </si>
+  <si>
+    <t>TR-53</t>
+  </si>
+  <si>
+    <t>TCClick</t>
+  </si>
+  <si>
     <t>TR-129</t>
-  </si>
-  <si>
-    <t>reqId</t>
-  </si>
-  <si>
-    <t>testCaseId1</t>
-  </si>
-  <si>
-    <t>testCaseId2</t>
-  </si>
-  <si>
-    <t>New Release 10-9-2025</t>
-  </si>
-  <si>
-    <t>RQ-437</t>
-  </si>
-  <si>
-    <t>TC-370</t>
-  </si>
-  <si>
-    <t>TC-437</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>parentModule</t>
-  </si>
-  <si>
-    <t>subTestCycle</t>
-  </si>
-  <si>
-    <t>TestCycle 039</t>
-  </si>
-  <si>
-    <t>subTestsuit</t>
-  </si>
-  <si>
-    <t>TestSuite 10</t>
-  </si>
-  <si>
-    <t>Projectname</t>
-  </si>
-  <si>
-    <t>ReleaseName</t>
-  </si>
-  <si>
-    <t>CycleName</t>
-  </si>
-  <si>
-    <t>SuiteName</t>
-  </si>
-  <si>
-    <t>SearchTR</t>
-  </si>
-  <si>
-    <t>New Release 12-09-2025</t>
-  </si>
-  <si>
-    <t>New TestCycle 13-09-2025</t>
-  </si>
-  <si>
-    <t>New TestSuite 13-09-2025</t>
-  </si>
-  <si>
-    <t>TR-49</t>
-  </si>
-  <si>
-    <t>test run</t>
-  </si>
-  <si>
-    <t>Mayukh_Release</t>
-  </si>
-  <si>
-    <t>Mayukh_TestCycle_Execute</t>
-  </si>
-  <si>
-    <t>Mayukh_Cycle_Execute</t>
-  </si>
-  <si>
-    <t>TR-143</t>
-  </si>
-  <si>
-    <t>TR-53</t>
-  </si>
-  <si>
-    <t>TCClick</t>
   </si>
   <si>
     <t>stepno</t>
@@ -966,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -984,6 +987,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1449,7 +1453,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1498,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1514,16 +1518,16 @@
         <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1563,10 +1567,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="14.5" spans="1:8">
@@ -1583,16 +1587,16 @@
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1649,13 +1653,13 @@
         <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1697,7 +1701,7 @@
         <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1717,7 +1721,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1761,7 @@
         <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1777,7 +1781,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1826,7 +1830,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1908,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1922,7 +1926,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2002,13 +2006,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2022,13 +2026,13 @@
         <v>42</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2059,13 +2063,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2079,13 +2083,13 @@
         <v>42</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2116,13 +2120,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2136,13 +2140,13 @@
         <v>42</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2175,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2183,10 +2187,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2229,13 +2233,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2252,16 +2256,16 @@
         <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2352,7 +2356,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2369,10 +2373,10 @@
         <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2438,19 +2442,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2467,7 +2471,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2499,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2507,10 +2511,10 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2585,7 +2589,7 @@
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2608,7 +2612,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2620,10 +2624,10 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:6">
@@ -2677,16 +2681,16 @@
         <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2703,16 +2707,16 @@
         <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2763,7 +2767,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2803,10 +2807,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2823,16 +2827,16 @@
         <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2880,10 +2884,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="14.5" spans="1:8">
@@ -2900,16 +2904,16 @@
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2937,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" ht="56" spans="1:4">
@@ -2948,13 +2952,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="26" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <sheet name="tc049" sheetId="24" r:id="rId33"/>
     <sheet name="tc050" sheetId="36" r:id="rId34"/>
     <sheet name="tc044" sheetId="37" r:id="rId35"/>
+    <sheet name="tc029" sheetId="38" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="89">
   <si>
     <t>projectName</t>
   </si>
@@ -319,6 +320,15 @@
   </si>
   <si>
     <t>TC-447</t>
+  </si>
+  <si>
+    <t>releaseName1</t>
+  </si>
+  <si>
+    <t>releaseName2</t>
+  </si>
+  <si>
+    <t>New Release 123</t>
   </si>
 </sst>
 </file>
@@ -342,15 +352,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -971,15 +981,16 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -987,7 +998,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,24 +1388,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1479,54 +1489,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1548,54 +1558,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="14.5" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="14.5" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1617,48 +1627,48 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1685,19 +1695,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F1" t="s">
@@ -1705,22 +1715,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1745,19 +1755,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F1" t="s">
@@ -1765,22 +1775,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1806,30 +1816,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1851,30 +1861,30 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1902,30 +1912,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1951,13 +1961,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -1965,13 +1975,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -1996,16 +2006,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2016,16 +2026,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2053,16 +2063,16 @@
   <sheetFormatPr defaultColWidth="17.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2073,16 +2083,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2110,16 +2120,16 @@
   <sheetFormatPr defaultColWidth="23.575" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2130,16 +2140,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2172,10 +2182,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2183,10 +2193,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
@@ -2214,28 +2224,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I1" t="s">
@@ -2243,28 +2253,28 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="I2">
@@ -2295,30 +2305,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2340,42 +2350,42 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2401,18 +2411,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2441,10 +2451,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2458,10 +2468,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C2" t="s">
@@ -2518,7 +2528,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2548,7 +2558,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2560,16 +2570,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
@@ -2577,19 +2587,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2631,7 +2641,7 @@
       </c>
     </row>
     <row r="2" ht="28" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2668,54 +2678,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2737,36 +2747,36 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2788,54 +2798,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2865,54 +2875,54 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="14.5" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2934,31 +2944,70 @@
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" ht="28" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" ht="56" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" ht="56" spans="1:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2985,36 +3034,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3036,12 +3085,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3216,36 +3265,36 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
     </row>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -2983,7 +2983,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9083473-902F-4DA9-86BC-3036F75F53BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="26" activeTab="35"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="27" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -43,26 +49,14 @@
     <sheet name="tc050" sheetId="36" r:id="rId34"/>
     <sheet name="tc044" sheetId="37" r:id="rId35"/>
     <sheet name="tc029" sheetId="38" r:id="rId36"/>
+    <sheet name="tc020" sheetId="40" r:id="rId37"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="89">
   <si>
     <t>projectName</t>
   </si>
@@ -334,14 +328,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,7 +357,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8.2"/>
+      <sz val="8.1999999999999993"/>
       <color rgb="FF667084"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -380,152 +368,8 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,194 +382,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -733,253 +391,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -989,7 +405,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -999,61 +414,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1331,21 +702,19 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.575" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1367,69 +736,65 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="38.7083333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="38.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.425" customWidth="1"/>
-    <col min="2" max="2" width="31.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="28.575" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1468,96 +833,92 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.575" customWidth="1"/>
-    <col min="7" max="7" width="32.575" customWidth="1"/>
-    <col min="8" max="8" width="29.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="7" max="7" width="32.54296875" customWidth="1"/>
+    <col min="8" max="8" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="1" ht="14.5" spans="1:8">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -1583,7 +944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" ht="14.5" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1611,103 +972,99 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="20.425" customWidth="1"/>
-    <col min="4" max="4" width="18.425" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F1" t="s">
@@ -1715,59 +1072,57 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F1" t="s">
@@ -1775,199 +1130,189 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.2833333333333" customWidth="1"/>
-    <col min="2" max="2" width="25.1333333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="36.575" customWidth="1"/>
+    <col min="1" max="1" width="36.54296875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.575" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.8583333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -1975,13 +1320,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -1990,32 +1335,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2026,16 +1369,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2047,32 +1390,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="17.08984375" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2083,16 +1424,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2104,32 +1445,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.575" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="23.54296875" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2140,16 +1479,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2161,31 +1500,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.425" customWidth="1"/>
-    <col min="2" max="2" width="18.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.425" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2193,10 +1530,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
@@ -2205,47 +1542,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="8" max="8" width="31.425" customWidth="1"/>
+    <col min="8" max="8" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I1" t="s">
@@ -2253,28 +1588,28 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I2">
@@ -2283,178 +1618,170 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.7083333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.425" customWidth="1"/>
-    <col min="3" max="3" width="21.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.425" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.575" customWidth="1"/>
-    <col min="2" max="2" width="16.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="15.8583333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.2833333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.425" customWidth="1"/>
-    <col min="5" max="5" width="27.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="27.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2468,10 +1795,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C2" t="s">
@@ -2486,25 +1813,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.425" customWidth="1"/>
-    <col min="3" max="3" width="12.2833333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.575" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2527,7 +1852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="28">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2549,37 +1874,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="18.575" customWidth="1"/>
-    <col min="3" max="3" width="15.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.1333333333333" customWidth="1"/>
+    <col min="1" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
@@ -2587,38 +1910,36 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="24.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.08984375" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2640,7 +1961,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:6">
+    <row r="2" spans="1:6" ht="28">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2662,219 +1983,209 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="29.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="26.8583333333333" customWidth="1"/>
-    <col min="4" max="5" width="22.7083333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.7083333333333" customWidth="1"/>
-    <col min="8" max="8" width="42.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="5" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="8" max="8" width="42.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -2900,7 +2211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" ht="14.5" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2928,22 +2239,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" ht="28" spans="1:4">
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -2957,7 +2266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" ht="56" spans="1:4">
+    <row r="2" spans="1:4" ht="56">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2973,20 +2282,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -3012,108 +2319,147 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F866ADB7-3A51-4F67-9A5C-24EF6D7D95EB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.8583333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.7083333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.7083333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.575" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.7083333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.575" customWidth="1"/>
-    <col min="3" max="3" width="20.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3140,25 +2486,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="32.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.2833333333333" customWidth="1"/>
-    <col min="3" max="3" width="16.425" customWidth="1"/>
-    <col min="4" max="4" width="14.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="32.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3191,26 +2535,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="38.8583333333333" customWidth="1"/>
-    <col min="2" max="2" width="36.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="38.81640625" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="28.575" customWidth="1"/>
-    <col min="5" max="5" width="19.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3249,57 +2591,54 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9083473-902F-4DA9-86BC-3036F75F53BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCDA088-965F-43DF-BE38-76EFADB4BCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="27" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="91">
   <si>
     <t>projectName</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>New Release 123</t>
+  </si>
+  <si>
+    <t>defif</t>
+  </si>
+  <si>
+    <t>DF-317</t>
   </si>
 </sst>
 </file>
@@ -2324,15 +2330,15 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F866ADB7-3A51-4F67-9A5C-24EF6D7D95EB}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -2348,8 +2354,11 @@
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2364,6 +2373,9 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCDA088-965F-43DF-BE38-76EFADB4BCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4416B94-9BC3-4994-A768-9393C8CB298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="27" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4416B94-9BC3-4994-A768-9393C8CB298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCBB96-8DD0-4091-B959-437132E68C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="27" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="28" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -50,13 +50,14 @@
     <sheet name="tc044" sheetId="37" r:id="rId35"/>
     <sheet name="tc029" sheetId="38" r:id="rId36"/>
     <sheet name="tc020" sheetId="40" r:id="rId37"/>
+    <sheet name="tc010" sheetId="42" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="91">
   <si>
     <t>projectName</t>
   </si>
@@ -325,10 +326,10 @@
     <t>New Release 123</t>
   </si>
   <si>
-    <t>defif</t>
-  </si>
-  <si>
     <t>DF-317</t>
+  </si>
+  <si>
+    <t>defid</t>
   </si>
 </sst>
 </file>
@@ -2332,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F866ADB7-3A51-4F67-9A5C-24EF6D7D95EB}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2355,7 +2356,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2375,7 +2376,56 @@
         <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0169DB9D-2F56-481E-A164-61CBB8B25DFD}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="26" activeTab="35"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="27" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -15,34 +15,36 @@
     <sheet name="tc003" sheetId="2" r:id="rId6"/>
     <sheet name="tc004" sheetId="3" r:id="rId7"/>
     <sheet name="tc006" sheetId="5" r:id="rId8"/>
-    <sheet name="tc007" sheetId="8" r:id="rId9"/>
-    <sheet name="tc009" sheetId="13" r:id="rId10"/>
-    <sheet name="tc011" sheetId="6" r:id="rId11"/>
-    <sheet name="tc013" sheetId="7" r:id="rId12"/>
-    <sheet name="tc015" sheetId="9" r:id="rId13"/>
-    <sheet name="tc016" sheetId="11" r:id="rId14"/>
-    <sheet name="tc018" sheetId="18" r:id="rId15"/>
-    <sheet name="tc042" sheetId="20" r:id="rId16"/>
-    <sheet name="tc043" sheetId="26" r:id="rId17"/>
-    <sheet name="tc037" sheetId="34" r:id="rId18"/>
-    <sheet name="tc021" sheetId="14" r:id="rId19"/>
-    <sheet name="tc022" sheetId="30" r:id="rId20"/>
-    <sheet name="tc024" sheetId="31" r:id="rId21"/>
-    <sheet name="tc031" sheetId="32" r:id="rId22"/>
-    <sheet name="tc023" sheetId="10" r:id="rId23"/>
-    <sheet name="tc034" sheetId="15" r:id="rId24"/>
-    <sheet name="tc036" sheetId="12" r:id="rId25"/>
-    <sheet name="tc038" sheetId="17" r:id="rId26"/>
-    <sheet name="tc039" sheetId="16" r:id="rId27"/>
-    <sheet name="tc040" sheetId="19" r:id="rId28"/>
-    <sheet name="tc045" sheetId="25" r:id="rId29"/>
-    <sheet name="tc046" sheetId="33" r:id="rId30"/>
-    <sheet name="tc047" sheetId="21" r:id="rId31"/>
-    <sheet name="tc048" sheetId="22" r:id="rId32"/>
-    <sheet name="tc049" sheetId="24" r:id="rId33"/>
-    <sheet name="tc050" sheetId="36" r:id="rId34"/>
-    <sheet name="tc044" sheetId="37" r:id="rId35"/>
-    <sheet name="tc029" sheetId="38" r:id="rId36"/>
+    <sheet name="tc0440" sheetId="23" r:id="rId9"/>
+    <sheet name="tc007" sheetId="8" r:id="rId10"/>
+    <sheet name="tc009" sheetId="13" r:id="rId11"/>
+    <sheet name="tc011" sheetId="6" r:id="rId12"/>
+    <sheet name="tc013" sheetId="7" r:id="rId13"/>
+    <sheet name="tc015" sheetId="9" r:id="rId14"/>
+    <sheet name="tc016" sheetId="11" r:id="rId15"/>
+    <sheet name="tc018" sheetId="18" r:id="rId16"/>
+    <sheet name="tc042" sheetId="20" r:id="rId17"/>
+    <sheet name="tc043" sheetId="26" r:id="rId18"/>
+    <sheet name="tc037" sheetId="34" r:id="rId19"/>
+    <sheet name="tc021" sheetId="14" r:id="rId20"/>
+    <sheet name="tc022" sheetId="30" r:id="rId21"/>
+    <sheet name="tc024" sheetId="31" r:id="rId22"/>
+    <sheet name="tc031" sheetId="32" r:id="rId23"/>
+    <sheet name="tc023" sheetId="10" r:id="rId24"/>
+    <sheet name="tc034" sheetId="15" r:id="rId25"/>
+    <sheet name="tc036" sheetId="12" r:id="rId26"/>
+    <sheet name="tc038" sheetId="17" r:id="rId27"/>
+    <sheet name="tc039" sheetId="16" r:id="rId28"/>
+    <sheet name="tc040" sheetId="19" r:id="rId29"/>
+    <sheet name="tc045" sheetId="25" r:id="rId30"/>
+    <sheet name="tc046" sheetId="33" r:id="rId31"/>
+    <sheet name="tc047" sheetId="21" r:id="rId32"/>
+    <sheet name="tc048" sheetId="22" r:id="rId33"/>
+    <sheet name="tc049" sheetId="24" r:id="rId34"/>
+    <sheet name="tc050" sheetId="36" r:id="rId35"/>
+    <sheet name="tc044" sheetId="38" r:id="rId36"/>
+    <sheet name="tc026" sheetId="40" r:id="rId37"/>
+    <sheet name="tc032" sheetId="41" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="84">
   <si>
     <t>projectName</t>
   </si>
@@ -94,87 +96,90 @@
     <t>Blocked</t>
   </si>
   <si>
-    <t>cycleName</t>
-  </si>
-  <si>
-    <t>suiteName</t>
+    <t>Projectname</t>
+  </si>
+  <si>
+    <t>ReleaseName</t>
+  </si>
+  <si>
+    <t>CycleName</t>
+  </si>
+  <si>
+    <t>SuiteName</t>
+  </si>
+  <si>
+    <t>SearchTR</t>
+  </si>
+  <si>
+    <t>New Release 12-09-2025</t>
+  </si>
+  <si>
+    <t>New TestCycle 13-09-2025</t>
+  </si>
+  <si>
+    <t>New TestSuite 13-09-2025</t>
+  </si>
+  <si>
+    <t>TR-129</t>
+  </si>
+  <si>
+    <t>reqId</t>
+  </si>
+  <si>
+    <t>testCaseId1</t>
+  </si>
+  <si>
+    <t>testCaseId2</t>
+  </si>
+  <si>
+    <t>New Release 10-9-2025</t>
+  </si>
+  <si>
+    <t>RQ-437</t>
+  </si>
+  <si>
+    <t>TC-370</t>
+  </si>
+  <si>
+    <t>TC-437</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>parentModule</t>
+  </si>
+  <si>
+    <t>subTestCycle</t>
+  </si>
+  <si>
+    <t>TestCycle 039</t>
+  </si>
+  <si>
+    <t>subTestsuit</t>
   </si>
   <si>
     <t>TestCycle 10</t>
   </si>
   <si>
-    <t>TestSuite 44</t>
-  </si>
-  <si>
-    <t>TR-202</t>
-  </si>
-  <si>
-    <t>reqId</t>
-  </si>
-  <si>
-    <t>testCaseId1</t>
-  </si>
-  <si>
-    <t>testCaseId2</t>
-  </si>
-  <si>
-    <t>New Release 10-9-2025</t>
-  </si>
-  <si>
-    <t>RQ-437</t>
-  </si>
-  <si>
-    <t>TC-370</t>
-  </si>
-  <si>
-    <t>TC-437</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>parentModule</t>
-  </si>
-  <si>
-    <t>subTestCycle</t>
-  </si>
-  <si>
-    <t>TestCycle 039</t>
-  </si>
-  <si>
-    <t>subTestsuit</t>
-  </si>
-  <si>
     <t>TestSuite 10</t>
   </si>
   <si>
-    <t>Projectname</t>
-  </si>
-  <si>
-    <t>ReleaseName</t>
-  </si>
-  <si>
-    <t>CycleName</t>
-  </si>
-  <si>
-    <t>SuiteName</t>
-  </si>
-  <si>
-    <t>SearchTR</t>
-  </si>
-  <si>
-    <t>New Release 12-09-2025</t>
-  </si>
-  <si>
-    <t>New TestCycle 13-09-2025</t>
-  </si>
-  <si>
-    <t>New TestSuite 13-09-2025</t>
-  </si>
-  <si>
     <t>TR-49</t>
   </si>
   <si>
+    <t>r-id</t>
+  </si>
+  <si>
+    <t>t-id</t>
+  </si>
+  <si>
+    <t>New Release 11</t>
+  </si>
+  <si>
+    <t>TC-447</t>
+  </si>
+  <si>
     <t>test run</t>
   </si>
   <si>
@@ -196,9 +201,6 @@
     <t>TCClick</t>
   </si>
   <si>
-    <t>TR-129</t>
-  </si>
-  <si>
     <t>stepno</t>
   </si>
   <si>
@@ -259,9 +261,6 @@
     <t>searchTestRunName</t>
   </si>
   <si>
-    <t>New Release 11</t>
-  </si>
-  <si>
     <t>TR-116</t>
   </si>
   <si>
@@ -313,22 +312,10 @@
     <t>TC-427</t>
   </si>
   <si>
-    <t>r-id</t>
-  </si>
-  <si>
-    <t>t-id</t>
-  </si>
-  <si>
-    <t>TC-447</t>
-  </si>
-  <si>
-    <t>releaseName1</t>
-  </si>
-  <si>
-    <t>releaseName2</t>
-  </si>
-  <si>
-    <t>New Release 123</t>
+    <t>defectId</t>
+  </si>
+  <si>
+    <t>Defect2310</t>
   </si>
 </sst>
 </file>
@@ -336,12 +323,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,7 +341,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -367,6 +359,7 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8.2"/>
@@ -837,165 +830,165 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1374,6 +1367,57 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1388,25 +1432,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -1434,19 +1478,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1454,16 +1498,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -1490,19 +1534,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
@@ -1519,16 +1563,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>47</v>
@@ -1546,7 +1590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -1559,19 +1603,19 @@
   <sheetData>
     <row r="1" ht="14.5" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
@@ -1588,16 +1632,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>47</v>
@@ -1615,7 +1659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G2"/>
@@ -1628,19 +1672,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
@@ -1654,16 +1698,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>47</v>
@@ -1678,13 +1722,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1695,20 +1739,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>37</v>
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F1" t="s">
         <v>51</v>
@@ -1718,17 +1762,17 @@
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="7" t="s">
         <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>52</v>
@@ -1740,7 +1784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -1755,20 +1799,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>37</v>
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F1" t="s">
         <v>53</v>
@@ -1778,17 +1822,17 @@
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="7" t="s">
         <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>54</v>
@@ -1800,7 +1844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -1816,30 +1860,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>37</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
+      <c r="A2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1849,7 +1893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -1861,31 +1905,31 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>26</v>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1894,13 +1938,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="18.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.8583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1912,30 +2005,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1945,56 +2038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="18.8583333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.8583333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2006,16 +2050,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2026,16 +2070,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2051,7 +2095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2063,16 +2107,16 @@
   <sheetFormatPr defaultColWidth="17.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2083,16 +2127,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2108,7 +2152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2120,16 +2164,16 @@
   <sheetFormatPr defaultColWidth="23.575" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2140,16 +2184,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2165,7 +2209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -2183,7 +2227,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2197,11 +2241,11 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2209,7 +2253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -2225,19 +2269,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
@@ -2249,7 +2293,7 @@
         <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2257,16 +2301,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>47</v>
@@ -2287,7 +2331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -2305,31 +2349,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>26</v>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2351,22 +2395,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2374,16 +2418,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>47</v>
@@ -2395,7 +2439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
@@ -2412,10 +2456,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2423,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -2452,19 +2496,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2472,16 +2516,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2534,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="18.575" customWidth="1"/>
+    <col min="3" max="3" width="15.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.1333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2509,42 +2609,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2553,63 +2653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="2" width="18.575" customWidth="1"/>
-    <col min="3" max="3" width="15.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.1333333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -2622,42 +2666,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="2" ht="28" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2666,41 +2710,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2708,26 +2752,26 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2735,7 +2779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
@@ -2748,19 +2792,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2768,16 +2812,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -2799,19 +2843,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
@@ -2828,16 +2872,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>47</v>
@@ -2855,7 +2899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -2876,19 +2920,19 @@
   <sheetData>
     <row r="1" ht="14.5" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
@@ -2905,16 +2949,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>47</v>
@@ -2932,82 +2976,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" ht="28" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" ht="56" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3034,37 +3129,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>21</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3085,8 +3180,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>22</v>
+      <c r="A1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3118,13 +3213,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3135,7 +3230,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3163,16 +3258,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3183,10 +3278,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3215,19 +3310,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3235,71 +3330,75 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="27.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.425" customWidth="1"/>
+    <col min="3" max="3" width="18.575" customWidth="1"/>
+    <col min="4" max="4" width="18.2833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.5" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" ht="14.5" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitAman\Desktop\UAT_NEXTNEXT_BLAZE_FRAMEWORK_AUTO\testData\executeTestCaseTabTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCBB96-8DD0-4091-B959-437132E68C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920EF647-20C6-4694-A7BE-08D47EF50AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="28" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="28" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -51,13 +51,14 @@
     <sheet name="tc029" sheetId="38" r:id="rId36"/>
     <sheet name="tc020" sheetId="40" r:id="rId37"/>
     <sheet name="tc010" sheetId="42" r:id="rId38"/>
+    <sheet name="tc041" sheetId="43" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="95">
   <si>
     <t>projectName</t>
   </si>
@@ -330,6 +331,18 @@
   </si>
   <si>
     <t>defid</t>
+  </si>
+  <si>
+    <t>fileaddress</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>C:\Users\MohitAman\Documents\sheet 1.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2388,7 +2401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0169DB9D-2F56-481E-A164-61CBB8B25DFD}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2426,6 +2439,73 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DB17CC-6B2B-4335-9FAC-602C559A2334}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="27" activeTab="37"/>
+    <workbookView windowWidth="19200" windowHeight="6080" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,9 @@
     <sheet name="tc044" sheetId="38" r:id="rId36"/>
     <sheet name="tc026" sheetId="40" r:id="rId37"/>
     <sheet name="tc032" sheetId="41" r:id="rId38"/>
+    <sheet name="tc041" sheetId="42" r:id="rId39"/>
+    <sheet name="tc010" sheetId="43" r:id="rId40"/>
+    <sheet name="tc020" sheetId="44" r:id="rId41"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="90">
   <si>
     <t>projectName</t>
   </si>
@@ -316,6 +319,24 @@
   </si>
   <si>
     <t>Defect2310</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>fileaddress</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>fileWithin5MB.xlsx</t>
+  </si>
+  <si>
+    <t>defid</t>
+  </si>
+  <si>
+    <t>DF-317</t>
   </si>
 </sst>
 </file>
@@ -972,8 +993,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1376,36 +1400,36 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1432,24 +1456,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1533,54 +1557,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1602,54 +1626,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="14.5" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="14.5" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1671,48 +1695,48 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1739,19 +1763,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F1" t="s">
@@ -1759,22 +1783,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1799,19 +1823,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F1" t="s">
@@ -1819,22 +1843,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1860,30 +1884,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1905,30 +1929,30 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1954,13 +1978,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -1968,13 +1992,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -2005,30 +2029,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2050,16 +2074,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2070,16 +2094,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2107,16 +2131,16 @@
   <sheetFormatPr defaultColWidth="17.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2127,16 +2151,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2164,16 +2188,16 @@
   <sheetFormatPr defaultColWidth="23.575" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2184,16 +2208,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2226,10 +2250,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2237,10 +2261,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
@@ -2268,28 +2292,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I1" t="s">
@@ -2297,28 +2321,28 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="I2">
@@ -2349,30 +2373,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2394,42 +2418,42 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2455,18 +2479,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2495,10 +2519,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2512,10 +2536,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
@@ -2551,36 +2575,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2628,7 +2652,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2685,7 +2709,7 @@
       </c>
     </row>
     <row r="2" ht="28" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2722,54 +2746,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2791,36 +2815,36 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2842,54 +2866,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2919,86 +2943,131 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3006,54 +3075,9 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D2" t="s">
@@ -3071,38 +3095,123 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.5833333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.4166666666667" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="11.9166666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="15.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="12.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.0833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" ht="42" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3129,41 +3238,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" ht="28" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="56" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" ht="56" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3180,12 +3405,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3353,8 +3578,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -3366,36 +3591,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="14.5" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" activeTab="8"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="27" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="tc001" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <sheet name="tc044" sheetId="38" r:id="rId36"/>
     <sheet name="tc026" sheetId="40" r:id="rId37"/>
     <sheet name="tc032" sheetId="41" r:id="rId38"/>
-    <sheet name="tc041" sheetId="42" r:id="rId39"/>
-    <sheet name="tc010" sheetId="43" r:id="rId40"/>
-    <sheet name="tc020" sheetId="44" r:id="rId41"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="84">
   <si>
     <t>projectName</t>
   </si>
@@ -319,24 +316,6 @@
   </si>
   <si>
     <t>Defect2310</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>fileaddress</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>fileWithin5MB.xlsx</t>
-  </si>
-  <si>
-    <t>defid</t>
-  </si>
-  <si>
-    <t>DF-317</t>
   </si>
 </sst>
 </file>
@@ -993,11 +972,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1400,36 +1376,36 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1456,24 +1432,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1557,54 +1533,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1626,54 +1602,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="14.5" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="14.5" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1695,48 +1671,48 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1763,19 +1739,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F1" t="s">
@@ -1783,22 +1759,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1823,19 +1799,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F1" t="s">
@@ -1843,22 +1819,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1884,30 +1860,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1929,30 +1905,30 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1978,13 +1954,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -1992,13 +1968,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -2029,30 +2005,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2074,16 +2050,16 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2094,16 +2070,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2131,16 +2107,16 @@
   <sheetFormatPr defaultColWidth="17.1333333333333" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2151,16 +2127,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2188,16 +2164,16 @@
   <sheetFormatPr defaultColWidth="23.575" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
@@ -2208,16 +2184,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
@@ -2250,10 +2226,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2261,10 +2237,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
@@ -2292,28 +2268,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I1" t="s">
@@ -2321,28 +2297,28 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="I2">
@@ -2373,30 +2349,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2418,42 +2394,42 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2479,18 +2455,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2519,10 +2495,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2536,10 +2512,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
@@ -2575,36 +2551,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2652,7 +2628,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2709,7 +2685,7 @@
       </c>
     </row>
     <row r="2" ht="28" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2746,54 +2722,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2815,36 +2791,36 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2866,54 +2842,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2943,54 +2919,54 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="14.5" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3012,58 +2988,58 @@
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -3071,13 +3047,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D2" t="s">
@@ -3096,122 +3072,40 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.4166666666667" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="11.9166666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="12.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.8333333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.0833333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" ht="42" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3238,157 +3132,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" ht="28" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" ht="56" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.4166666666667" customWidth="1"/>
-    <col min="3" max="3" width="18.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="28" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" ht="56" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3405,12 +3183,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3578,8 +3356,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -3591,36 +3369,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" ht="14.5" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
+++ b/testData/executeTestCaseTabTestData/executeTestCaseTab_testData.xlsx
@@ -3579,15 +3579,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27.8583333333333" customWidth="1"/>
     <col min="2" max="2" width="18.425" customWidth="1"/>
-    <col min="3" max="3" width="18.575" customWidth="1"/>
-    <col min="4" max="4" width="18.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="21.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="18.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="1:6">
